--- a/biology/Zoologie/Carcinoscorpius_rotundicauda/Carcinoscorpius_rotundicauda.xlsx
+++ b/biology/Zoologie/Carcinoscorpius_rotundicauda/Carcinoscorpius_rotundicauda.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Carcinoscorpius rotundicauda, ou limule à queue ronde, est l'une des quatre espèces vivantes et connues de limule. On peut la rencontrer en Indonésie et en Asie du Sud-Est où elle a disparu de l'île de Kinmen à Taïwan. Les quatre espèces de limule vivantes sont similaires du point de vue de leur écologie, de leur morphologie et de leur sérologie. C'est la seule espèce vivante du genre Carcinoscorpius.
 </t>
@@ -511,9 +523,11 @@
           <t>Synonymie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Limulus rotundicauda Latreille, 1802 est le protonyme sous lequel Latreille l'a décrite en 1802[1]. En 1902, Reginald Innes Pocock a créé le genre Carcinoscorpius à partir de cette espèce et l'a renommée Carcinoscorpius rotundicauda (Latreille, 1802)[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Limulus rotundicauda Latreille, 1802 est le protonyme sous lequel Latreille l'a décrite en 1802. En 1902, Reginald Innes Pocock a créé le genre Carcinoscorpius à partir de cette espèce et l'a renommée Carcinoscorpius rotundicauda (Latreille, 1802).
 </t>
         </is>
       </c>
